--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Expenditure Shares At Constant Prices_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Expenditure Shares At Constant Prices_historical.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Household Final Consumption Expenditure</t>
+  </si>
+  <si>
+    <t>Government Final Consumption Expenditure</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Durable equipment</t>
+  </si>
+  <si>
+    <t>Breeding Stocks and Orchard Development</t>
+  </si>
+  <si>
+    <t>Changes in Inventories</t>
+  </si>
+  <si>
+    <t>Exports of Goods and services</t>
+  </si>
+  <si>
+    <t>Statistical discrepancy</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product</t>
+  </si>
+  <si>
+    <t>Net Primary Income from the Rest of the World</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +87,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +106,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2727 +403,2645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:77">
+      <c r="B1" s="1">
         <v>1946</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1947</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1948</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1949</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1950</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1951</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1952</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1953</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1954</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1955</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1956</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1957</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1958</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1959</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1960</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1961</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1962</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1963</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1964</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1965</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1966</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1967</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1968</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1969</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1970</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1971</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1972</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1973</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1974</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1975</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1976</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1977</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1978</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1979</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1980</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1981</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1982</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1983</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1984</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1985</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1986</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1987</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1988</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1989</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1990</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1991</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1992</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1993</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1994</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1995</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>1996</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>1997</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>1998</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>1999</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2000</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2001</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2002</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2003</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2004</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2005</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2006</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2007</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2008</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2009</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2010</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2011</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2012</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2013</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2014</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2015</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2016</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2017</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="1">
         <v>2018</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="1">
         <v>2019</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="1">
         <v>2020</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Household Final Consumption Expenditure</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:77">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>315047.361130292</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>422743.936888273</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>485328.051606434</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>558802.653404017</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>607446.12035829</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>653988.598226542</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>715210.310285594</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>806260.764385406</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>881222.383975813</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>944206.994257443</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>988238.212658354</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>1025098.42356912</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>1070026.52430726</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>1117082.68850095</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>1158297.31738794</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>1214915.24189604</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>1285273.58984158</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>1360297.73792792</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>1410998.31587779</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>1478269.92663502</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>1556840.96474469</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>1632356.48932622</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>1709982.13145624</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>1778278.11122434</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>1828938.03322639</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>1886595.34497576</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>1936258.20600494</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>2038963.33263406</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>2127884.31763927</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>2226485.19822352</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>2341724.61339423</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>2467531.04070298</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>2595443.94625313</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>2716612.68979326</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>2819538.77085764</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>2903709.00422339</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>3005368.84865917</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>3033216.72290958</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>3070729.32669324</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>3053954.46717571</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>3148853.90267083</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>3257876.36189966</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>3440177.67503525</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>3596835.28182143</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>3784612.7077898</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>3879183.83077151</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>4004742.59631164</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>4105983.25497422</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>4225672.43585457</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>4351835.77626252</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>4518090.26410724</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>4713853.94017656</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>4963324.77345319</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>5163260.58534125</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>5356411.781259</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>5567576.769794</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>5851522.181594</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>6166308.349641</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>6530391.385258</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>6820632.512449</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>7105899.013858</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>7447652.352394</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>7734581.604932</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>7930378.587788</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>8215063.279593</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>8671174.618996</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>9260725.202391</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>9799607.099538</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>10366460.980193</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>11034535.072208</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>11823461.125398</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>12527828.03776</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>13250084.431221</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>14027455.562031</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>12911356.953432</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>13456531.51353</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Government Final Consumption Expenditure</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:77">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>42198.221102371</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>84653.0828593332</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>106169.191880219</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>118505.520855152</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>130511.999860516</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>132937.94784263</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>146483.87108883</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>152262.703539517</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>159980.143580351</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>166603.385387305</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>172114.699660834</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>177258.807796453</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>184914.391192486</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>189914.693690279</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>205759.692649577</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>217865.861230672</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>223988.072498066</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>240794.157534401</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>249930.560493467</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>260051.73853156</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>260668.012187027</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>289083.486887405</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>309732.232784</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>328232.999804919</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>349053.266167982</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>381304.077742182</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>428260.01251971</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>476605.486759508</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>543988.59797421</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>584931.147091659</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>598253.037882405</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>604389.372262011</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>622381.205390104</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>644272.5539383671</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>663771.153646801</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>645968.6531304891</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>694733.6987081229</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>663982.345836323</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>591294.348152971</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>588857.938616973</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>589642.917489354</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>614869.428561049</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>666613.215217651</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>710137.559306194</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>756934.965735386</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>742531.869920986</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>735870.414377075</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>777308.019242465</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>818508.893683032</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>857145.688629458</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>885679.873375233</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>920925.7150725439</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>919078.033522141</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>885710.682246818</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>828733.274</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>817760.038812</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>787837.208476</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>821027.8393239999</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>838402.307029</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>863359.171941</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>968395.435921</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>1037211.955</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>1042500.452356</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>1157604.220287</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>1205917.116642</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>1228900.473801</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>1419240.367255</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>1489352.942263</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>1543340.562175</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>1665462.000961</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>1821367.161536</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>1939879.737803</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>2199637.346353</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>2399867.44381</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>2651875.451303</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>2839962.458796</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Gross fixed capital formation</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:77">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>73755.1434503889</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>137573.197468347</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>162945.172100537</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>129118.010979036</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>116056.736553969</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>124492.677550513</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>119341.300653004</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>145200.827768644</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>143199.296520795</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>150698.623535973</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>177494.764632979</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>209493.603941541</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>202667.869173235</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>231285.916918924</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>205869.036136943</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>236488.615130482</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>225550.760074125</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>268333.490496902</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>311674.340209941</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>330926.248141977</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>326923.18564628</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>380926.03835267</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>381580.385106775</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>394128.446391367</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>362873.766136492</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>392351.445892475</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>403359.867755645</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>423099.328171132</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>494468.030518316</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>652621.074919677</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>778512.258277981</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>802171.38405384</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>865604.528216442</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>896589.7715725671</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>966874.311160501</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>1084175.58958012</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>1139557.70260153</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>1235797.99676895</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>881834.893783936</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>604103.187652103</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>609973.062946276</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>651953.89783706</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>758606.003591841</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>922526.280659279</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>1060837.22201706</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>910331.053408763</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>968523.008374274</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>1052888.83350397</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>1131557.99277439</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>1184669.13764921</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>1327002.38699546</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>1479266.31060987</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>1340473.56112376</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>1261413.37607201</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>1277684.042123</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>1219578.357971</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>1267315.014162</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>1388714.173634</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>1449043.179023</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>1434709.00501</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>1507109.525636</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>1672959.429852</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>1814189.360764</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>1852342.863731</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>2221695.901738</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>2129337.80869</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>2402350.615137</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>2686745.84846</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>2901280.53644</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>3301109.708883</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>3990752.913873</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>4412035.368126</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>4983346.471415</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>5175519.970453</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>3761791.285832</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>4136014.94738</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:77">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>102126.905412381</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>170000.767377806</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>204581.213019871</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>143797.302038193</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>133399.459910756</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>154014.508471778</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>141268.402324245</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>165812.27722658</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>139970.083274674</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>142228.029447842</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>170508.805266769</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>204163.492977835</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>188132.075148344</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>209277.741060061</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>187838.542145832</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>230175.032892729</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>215148.401110297</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>265782.844043586</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>304100.190602244</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>335079.212098106</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>317455.942216532</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>350636.461231234</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>316236.651283022</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>338737.084898637</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>278495.08099852</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>275412.984472146</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>320007.421392212</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>337732.298851578</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>372199.847184986</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>572310.326781983</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>806041.6248974541</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>856145.450480046</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>888603.426719334</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>872120.41965521</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>900446.354397599</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>1028438.03322362</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>1048601.49255001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>1258759.8326176</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>940637.796279987</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>578508.38902733</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>539118.518036417</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>584187.123652846</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>659929.9280317629</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>760589.168431583</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>874310.627443183</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>685659.224675008</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>717101.1251363721</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>793193.911172129</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>822547.2114233091</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>887677.6687883351</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>1028663.82784093</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>1178693.06131707</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>1115775.39120175</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>997451.420170774</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>795651.646434</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>748814.004005</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>767234.44359</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>846665.865229</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>872541.146296</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>821181.4395569999</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>862018.369496</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>991409.111901</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>1107427.523717</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>1148198.369049</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>1368896.78696</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>1248052.99396</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>1475935.375298</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>1667182.232078</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>1827840.068895</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>2042715.01149</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>2352688.546808</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>2558243.187271</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>2939785.849495</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>3205990.712428</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>2242533.866288</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>2491427.931977</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Durable equipment</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:77">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>3055.28678260414</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>13474.2920998441</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>15804.5450072794</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>15741.887758808</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>11946.648708542</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>9861.05743799481</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>10511.4993506976</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>15327.1564474976</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>20309.8995402211</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>22965.373404008</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>27781.0305008079</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>33506.709539692</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>34139.249381403</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>41207.5837446737</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>35111.9285719586</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>37427.2630869008</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>35777.2888771546</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>41425.3922750742</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>51411.7642100118</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>51208.8740721045</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>53464.535017074</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>69454.0680912689</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>79100.3006773619</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>78420.0219796727</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>80287.8047198194</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>93299.6266523747</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>87448.6331165478</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>90318.9318322365</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>113901.926685462</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>136160.168285294</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>132069.545063663</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>128844.188606635</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>148166.490563808</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>165513.597354883</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>179250.453162607</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>199023.290573074</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>220174.58744991</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>212163.41068107</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>134393.8306141</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>99240.1305431603</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>112863.606567936</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>119717.116079306</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>148094.882279841</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>196206.69807036</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>229671.636111071</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>208624.767981687</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>227040.031675273</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>245532.871009824</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>273478.003828057</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>279573.659000773</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>306286.532599068</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>334365.93094974</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>274012.082279314</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>264485.434024742</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>270526.745035</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>253357.911283</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>275222.335764</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>304829.938417</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>316995.832931</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>351331.824657</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>360898.391049</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>385389.759365</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>419542.508327</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>407959.513403</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>541148.52357</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>566280.6773400001</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>599950.799134</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>687636.105337</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>727528.75674</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>883983.41546</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>1220272.037326</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>1388078.584121</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>1527020.103857</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>1424524.97497</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>1001577.58086</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>1123295.80764</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Breeding Stocks and Orchard Development</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:77">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>32073.4452831137</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>42052.8494216578</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>44547.700456294</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>47514.5503353204</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>51043.3036005263</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>55268.8170645948</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>57696.2396928893</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>63157.9406065519</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>70058.1141888334</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>71833.72888916011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>73137.34474509599</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>75115.24466444719</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>78351.80816883971</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>83274.0818317704</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>82824.55912282709</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>88376.1645782782</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>92399.3928233219</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>98939.9482384491</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>99277.09027015659</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>106581.834290487</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>110650.014806425</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>113347.151060086</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>111459.155682523</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>115752.097552933</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>112110.963610492</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>123506.364282207</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>117370.379305129</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>129619.873123838</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>133395.863878963</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>121438.559821068</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>128001.591371642</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>135441.192204655</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>147510.876939786</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>158209.51741264</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>244585.30593612</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>251800.145414662</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>246360.920636447</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>225503.066941472</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>204532.832569261</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>217231.849096913</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>213590.715154471</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>219322.129693499</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>228424.964549604</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>239910.269763109</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>246001.302469292</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>252811.571509785</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>255373.850950763</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>260161.26780101</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>266836.68002882</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>277333.035282649</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>294100.232326239</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>317363.032514061</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>318284.554067396</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>324040.750918037</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>194269.355919</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>201021.32588</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>207804.524122</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>219823.923501</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>239145.785826</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>242059.696446</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>262295.203748</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>275216.570942</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>267480.178034</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>274382.607959</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>289216.474788</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>290014.870933</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>297108.874998</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>297695.599531</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>302828.554976</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>319457.411804</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>344642.122851</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>368250.283481</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>397760.164699</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>403626.950017</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>389874.7894</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>376942.85805</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Changes in Inventories</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:77">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>-1904.74704132432</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-2596.5405848053</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-3723.51591758886</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-2089.26941095261</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-2715.58727488807</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-2081.33296494709</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-2101.17407996089</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-3177.22388420904</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-4761.8676033108</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>-5269.13877716349</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-2304.87619410252</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>-2784.3698069359</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>-3400.105742864</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>-3841.90123717117</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>-3468.22690441137</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>-4393.48423455467</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>-5248.63629164923</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>-6023.76251818816</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>-5294.27085618097</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>-5661.33148393617</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>-6099.82012574104</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>-4702.34425826942</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>-4941.76037943587</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>-5654.05640843111</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>-7057.48461040688</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>-6575.34551557166</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>-7148.09236896987</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>-10887.4811785697</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>-14874.2225553416</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>-14427.7974675312</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>-16864.2863912253</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>-15369.5890601861</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>-16767.0649276577</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>-18190.3342446472</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>-6847.83016176111</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>2228.15721604918</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>-1284.381511893</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>1036.36757422056</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>11284.9648493462</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>8016.47183607364</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>3162.67373319893</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>-4271.1306919696</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>-3775.10281662473</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>-3641.50597553184</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>-5017.81798698875</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>-756.607852526049</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>-2167.97250050733</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>-1502.63377704474</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>-2915.98253652741</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>-1629.61691313303</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>-2371.67461464896</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>-2951.69654355223</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>5314.11197119476</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>51553.8424566238</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>-146462.895973</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>143432.331102</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>187538.942355</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>57010.773231</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>88870.838674</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>34304.256858</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>-187146.575599</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>-242543.040752</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>-1388.947126</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>-147551.697635</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>2341.528845</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>39002.573345</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>-116322.464515</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>21021.002302</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>30594.739035</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>24185.558667</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>26552.476233</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>42766.420686</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>-26943.784996</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>-44600.24077</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>-386663.32381</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>-75780.401101</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Exports of Goods and services</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:77">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>18519.2666902706</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>97079.2296163421</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>140946.685300792</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>104705.127113057</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>106413.986643634</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>122454.248831836</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>142902.349088254</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>141232.871951285</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>149832.33812099</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>164885.79341438</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>143538.462310807</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>148331.32909183</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>153935.489004116</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>149572.939087574</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>159723.169726942</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>164987.53275136</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>191371.600358997</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>227558.893006129</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>240573.31086875</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>272938.502516873</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>290178.319133409</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>247877.73518116</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>220184.588385434</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>210616.824006391</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>239783.556860373</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>246165.713653853</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>289577.456224015</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>338116.882943315</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>298036.122297953</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>308081.023875499</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>348190.49954178</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>405718.107973532</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>426132.254030325</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>444461.090921889</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>616760.312885727</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>661882.353059129</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>592145.240821915</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>623231.6789638239</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>657076.348143227</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>547667.308954656</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>638926.555519245</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>678864.0784011181</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>779265.745279661</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>844564.987523614</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>864263.12456305</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>919702.414788203</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>966444.172720985</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>1023893.74014918</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>1216204.47046405</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>1351871.95888146</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>1548378.36187561</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>1806843.90009744</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>1447026.25599845</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>1594145.99894314</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>1770015.015181</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>1731638.213289</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>1815538.292643</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>1983171.10303</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>2112896.967477</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>2376969.139404</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>2616025.19357</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>2690899.839194</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>2575181.775254</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>2453934.043639</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>2952272.369611</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>2929219.183858</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>3061251.469013</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>3121668.592071</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>3500548.489232</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>3849448.26452</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>4203846.044555</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>4935390.133081</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>5518572.505292</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>5664043.029503</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>4749668.274655</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>5128006.17448</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Statistical discrepancy</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="n">
+    <row r="10" spans="1:77">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD10">
         <v>0</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>0</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>0</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>0</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>0</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>0</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>0</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>0</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>0</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>0</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>0</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>0</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>0</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>0</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>0</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>0</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>0</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>0</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>0</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>0</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>0</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Gross Domestic Product</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:77">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>447430.391483226</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>619325.455986721</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>718008.192486626</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>765855.399434031</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>824339.7146758439</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>911752.742689086</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>970049.651550223</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1056526.09604217</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>1138778.10428568</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1216418.00098023</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>1297882.68688808</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>1367048.35217215</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>1415482.22773063</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1511569.3901351</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>1533325.33447399</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>1620655.43350984</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>1699197.16359452</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>1818417.34259984</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>1880288.89154859</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>1980792.0124233</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>2068762.12587275</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>2176807.10871761</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>2286478.12063671</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>2393701.90480357</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>2482089.0480896</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>2615849.03578337</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>2757899.77469646</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>3000098.78451861</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>3101940.32916768</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>3271030.28752545</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>3558174.51917946</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>3756114.70919645</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>3951146.62828656</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>4172235.84620551</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>4389221.77813463</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>4539430.10929943</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>4707316.66931375</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>4796612.19707133</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>4458960.52369297</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>4153148.19144279</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>4298952.10168889</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>4486464.21027957</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>4786919.62752154</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>5082938.82174382</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>5239629.18042903</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>5216763.9584308</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>5238550.68099032</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>5352850.09373171</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>5586965.87386074</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>5845375.62283386</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>6187934.96874228</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>6508866.75025426</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>6475405.27824638</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>6692101.55483402</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>6985383.240148</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>7198383.735413</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>7465894.031031</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>7845677.425757</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>8361077.904233</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>8774324.607556</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>9240804.277024001</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>9843239.249442</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>10270877.529023</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>10419633.017031</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>11183860.996541</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>11615360.392889</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>12416466.190196</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>13254643.62694</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>14096046.745228</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>14990907.450429</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>16062675.89497</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>17175978.086072</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BV11">
         <v>18265190.258162</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BW11">
         <v>19382750.611423</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BX11">
         <v>17537843.279373</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BY11">
         <v>18538053.835091</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Net Primary Income from the Rest of the World</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:77">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>-500.020584992148</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>-8706.8801864937</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-12304.8543958937</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-15359.3279694327</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-7435.08869857889</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-13750.5660872841</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-8489.47993214929</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>-26946.7615259899</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>-27729.4024416297</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>-32968.7485713301</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>-31436.076778202</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>-29675.1347180123</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>-21674.8053581379</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>-29751.2248070328</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>-34294.890122831</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>-17805.0808308073</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>-8402.519830411529</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>-9185.16074605141</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>-11467.8634166678</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>-14978.8775243299</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>-17207.2301313602</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>-34240.5400592449</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>-38773.3353623259</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>-31533.906892657</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>-69187.63094510919</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>-44480.0920388667</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>-43001.7703093247</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>-12794.0049681686</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>16076.7488087692</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>-16576.7693937614</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>-52110.8409663556</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>-44284.4318099567</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>-37327.6236709356</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>-3619.71423483446</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>-44360.5218989773</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>-46969.3249511103</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>-129972.742059807</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>-148049.573208545</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>-263793.468621509</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>-222346.110130748</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>-216650.223466924</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>-174094.123679005</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>-156006.42251755</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>-165408.983517946</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>-40882.1178294667</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>40175.5670028474</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>135386.008392983</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>188301.230300412</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>214878.411394017</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>242412.153606737</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>381591.79643803</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>407701.566984793</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>505040.079456791</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>505061.595618377</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>688778.80747</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>714251.9781440001</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>741059.997431</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>772334.374129</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>812084.247353</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>881147.117957</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>872004.660778</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>909001.325175</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>981529.767525</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>1243169.803248</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>1302182.214292</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BO12">
         <v>1287860.594069</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BP12">
         <v>1397837.08797</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BQ12">
         <v>1586182.197038</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BR12">
         <v>1662037.01158</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>1731385.600765</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>1800002.566518</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BU12">
         <v>1908246.050513</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BV12">
         <v>1947158.658007</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BW12">
         <v>1916281.822659</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BX12">
         <v>1320172.554167</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BY12">
         <v>642515.1533</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>